--- a/server/seeds/authoritys.xlsx
+++ b/server/seeds/authoritys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24240" windowHeight="11595"/>
+    <workbookView windowWidth="25760" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="权限" sheetId="35" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
   <si>
     <t>ID</t>
   </si>
@@ -31,94 +31,364 @@
     <t>PID</t>
   </si>
   <si>
+    <t>00000001-0000-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>管理后台</t>
+  </si>
+  <si>
+    <t>/admin</t>
+  </si>
+  <si>
     <t>00000000-0000-0000-0000-000000000000</t>
   </si>
   <si>
     <t>首页看板</t>
   </si>
   <si>
-    <t>/admin/studio</t>
+    <t>/studio</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000001</t>
   </si>
   <si>
+    <t>站内搜索</t>
+  </si>
+  <si>
+    <t>/studio/search</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000002</t>
+  </si>
+  <si>
+    <t>景区概况</t>
+  </si>
+  <si>
+    <t>/studio/survey/:channel</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000003</t>
+  </si>
+  <si>
+    <t>景区风光</t>
+  </si>
+  <si>
+    <t>/studio/scenery/:channel</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000004</t>
+  </si>
+  <si>
+    <t>旅游攻略</t>
+  </si>
+  <si>
+    <t>/studio/strategy/:channel</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000005</t>
+  </si>
+  <si>
+    <t>景区动态</t>
+  </si>
+  <si>
+    <t>/studio/news/:channel</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000006</t>
+  </si>
+  <si>
+    <t>联系我们</t>
+  </si>
+  <si>
+    <t>/studio/about/:channel</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000007</t>
+  </si>
+  <si>
+    <t>组织架构</t>
+  </si>
+  <si>
+    <t>/studio/organization</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000008</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>/studio/users/:channel</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000009</t>
+  </si>
+  <si>
+    <t>权限角色</t>
+  </si>
+  <si>
+    <t>/studio/auth</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000010</t>
+  </si>
+  <si>
+    <t>菜单管理</t>
+  </si>
+  <si>
+    <t>/studio/category</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000011</t>
+  </si>
+  <si>
+    <t>站点设置</t>
+  </si>
+  <si>
+    <t>/studio/setting</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000012</t>
+  </si>
+  <si>
+    <t>景区介绍</t>
+  </si>
+  <si>
+    <t>/studio/survey/景区介绍</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000013</t>
+  </si>
+  <si>
+    <t>地理概况</t>
+  </si>
+  <si>
+    <t>/studio/survey/地理概况</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000014</t>
+  </si>
+  <si>
+    <t>人文历史</t>
+  </si>
+  <si>
+    <t>/studio/survey/人文历史</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000015</t>
+  </si>
+  <si>
+    <t>工艺特色</t>
+  </si>
+  <si>
+    <t>/studio/survey/工艺特色</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000016</t>
+  </si>
+  <si>
+    <t>发展规划</t>
+  </si>
+  <si>
+    <t>/studio/survey/发展规划</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000017</t>
+  </si>
+  <si>
+    <t>当地特产</t>
+  </si>
+  <si>
+    <t>/studio/survey/当地特产</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000018</t>
+  </si>
+  <si>
+    <t>特色工艺品</t>
+  </si>
+  <si>
+    <t>/studio/survey/特色工艺品</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000019</t>
+  </si>
+  <si>
+    <t>游览须知</t>
+  </si>
+  <si>
+    <t>/studio/survey/游览须知</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000020</t>
+  </si>
+  <si>
+    <t>景点一览</t>
+  </si>
+  <si>
+    <t>/studio/scenery/景点一览</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000021</t>
+  </si>
+  <si>
+    <t>720度全景</t>
+  </si>
+  <si>
+    <t>/studio/scenery/720度全景</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000022</t>
+  </si>
+  <si>
+    <t>电子导游导览</t>
+  </si>
+  <si>
+    <t>/studio/scenery/电子导游导览</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000023</t>
+  </si>
+  <si>
+    <t>摄影佳作</t>
+  </si>
+  <si>
+    <t>/studio/scenery/摄影佳作</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000024</t>
+  </si>
+  <si>
+    <t>视频赏析</t>
+  </si>
+  <si>
+    <t>/studio/scenery/视频赏析</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000025</t>
+  </si>
+  <si>
+    <t>特色餐饮</t>
+  </si>
+  <si>
+    <t>/studio/strategy/特色餐饮</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000026</t>
+  </si>
+  <si>
+    <t>周边住宿</t>
+  </si>
+  <si>
+    <t>/studio/strategy/周边住宿</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000027</t>
+  </si>
+  <si>
+    <t>旅游购物</t>
+  </si>
+  <si>
+    <t>/studio/strategy/旅游购物</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000028</t>
+  </si>
+  <si>
+    <t>周边娱乐</t>
+  </si>
+  <si>
+    <t>/studio/strategy/周边娱乐</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000029</t>
+  </si>
+  <si>
+    <t>游程推荐</t>
+  </si>
+  <si>
+    <t>/studio/strategy/游程推荐</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000030</t>
+  </si>
+  <si>
+    <t>美文游记</t>
+  </si>
+  <si>
+    <t>/studio/strategy/美文游记</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000031</t>
+  </si>
+  <si>
+    <t>官方公告</t>
+  </si>
+  <si>
+    <t>/studio/news/官方公告</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000032</t>
+  </si>
+  <si>
+    <t>精彩活动</t>
+  </si>
+  <si>
+    <t>/studio/news/精彩活动</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000033</t>
+  </si>
+  <si>
+    <t>新闻动态</t>
+  </si>
+  <si>
+    <t>/studio/news/新闻动态</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000034</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>/studio/about/联系方式</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000035</t>
+  </si>
+  <si>
+    <t>留言咨询</t>
+  </si>
+  <si>
+    <t>/studio/about/留言咨询</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000036</t>
+  </si>
+  <si>
+    <t>投诉建议</t>
+  </si>
+  <si>
+    <t>/studio/about/投诉建议</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000037</t>
+  </si>
+  <si>
+    <t>角色管理</t>
+  </si>
+  <si>
+    <t>/studio/auth/role</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000038</t>
+  </si>
+  <si>
     <t>权限管理</t>
   </si>
   <si>
-    <t>/admin/studio/auth</t>
-  </si>
-  <si>
-    <t>00000000-0000-0000-0000-000000000002</t>
-  </si>
-  <si>
-    <t>角色列表</t>
-  </si>
-  <si>
-    <t>/admin/studio/auth/role</t>
-  </si>
-  <si>
-    <t>00000000-0000-0000-0000-000000000003</t>
-  </si>
-  <si>
-    <t>权限列表</t>
-  </si>
-  <si>
-    <t>/admin/studio/auth/authority</t>
-  </si>
-  <si>
-    <t>00000000-0000-0000-0000-000000000004</t>
-  </si>
-  <si>
-    <t>角色新增</t>
-  </si>
-  <si>
-    <t>/admin/studio/auth/role/add</t>
-  </si>
-  <si>
-    <t>00000000-0000-0000-0000-000000000005</t>
-  </si>
-  <si>
-    <t>角色修改</t>
-  </si>
-  <si>
-    <t>/admin/studio/auth/role/edit</t>
-  </si>
-  <si>
-    <t>00000000-0000-0000-0000-000000000006</t>
-  </si>
-  <si>
-    <t>角色删除</t>
-  </si>
-  <si>
-    <t>/admin/studio/auth/role/delete</t>
-  </si>
-  <si>
-    <t>00000000-0000-0000-0000-000000000007</t>
-  </si>
-  <si>
-    <t>权限新增</t>
-  </si>
-  <si>
-    <t>/admin/studio/auth/authority/add</t>
-  </si>
-  <si>
-    <t>00000000-0000-0000-0000-000000000008</t>
-  </si>
-  <si>
-    <t>权限修改</t>
-  </si>
-  <si>
-    <t>/admin/studio/auth/authority/edit</t>
-  </si>
-  <si>
-    <t>00000000-0000-0000-0000-000000000009</t>
-  </si>
-  <si>
-    <t>权限删除</t>
-  </si>
-  <si>
-    <t>/admin/studio/auth/authority/delete</t>
+    <t>/studio/auth/authority</t>
   </si>
 </sst>
 </file>
@@ -126,10 +396,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -140,17 +410,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,9 +434,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="10"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,6 +457,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -188,21 +516,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,51 +546,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -268,21 +553,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -293,12 +563,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -311,169 +731,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,8 +760,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,17 +781,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,20 +825,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,160 +854,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -735,54 +1005,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1049,15 +1319,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="44.625" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
@@ -1097,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1108,7 +1378,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1122,10 +1395,10 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1139,10 +1412,10 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1156,10 +1429,10 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1173,10 +1446,10 @@
         <v>22</v>
       </c>
       <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1190,10 +1463,10 @@
         <v>25</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1207,10 +1480,10 @@
         <v>28</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1224,10 +1497,10 @@
         <v>31</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1241,10 +1514,520 @@
         <v>34</v>
       </c>
       <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37">
+        <v>34</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
